--- a/biology/Médecine/Lesinurad/Lesinurad.xlsx
+++ b/biology/Médecine/Lesinurad/Lesinurad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lésinurad est une molécule inhibitrice de l'URAT1 et utilisé comme médicament, en association avec l'allopurinol, dans le traitement de l'hyperuricémie.
 </t>
@@ -511,9 +523,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En association avec l'allopurinol, il diminue mieux le taux sanguin d'acide urique comparativement à un traitement par l'allopurinol seul[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En association avec l'allopurinol, il diminue mieux le taux sanguin d'acide urique comparativement à un traitement par l'allopurinol seul,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus courants sont une augmentation de la créatinine sanguine, la survenue de céphalées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus courants sont une augmentation de la créatinine sanguine, la survenue de céphalées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Pharmacodynamique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molécule est métabolisée par le CYP2C9[3], ce qui implique une interaction avec toutes les molécules qui influencent ce cytochrome.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule est métabolisée par le CYP2C9, ce qui implique une interaction avec toutes les molécules qui influencent ce cytochrome.
 </t>
         </is>
       </c>
